--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{0333B45C-1663-455C-A51C-0607CC33512E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74E1C6-EE77-46B2-A44C-24BD11B2AFF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,22 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -80,9 +65,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -215,9 +197,6 @@
     <t>Iteration 2</t>
   </si>
   <si>
-    <t>Populate Database</t>
-  </si>
-  <si>
     <t>Final Report</t>
   </si>
   <si>
@@ -225,6 +204,21 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Registration/log-in page</t>
+  </si>
+  <si>
+    <t>Post Editing page</t>
+  </si>
+  <si>
+    <t>Administrative Matter</t>
+  </si>
+  <si>
+    <t>"About Us" page</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -593,7 +587,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -749,16 +743,85 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -767,93 +830,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1365,35 +1353,38 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CU35"/>
+  <dimension ref="A1:CU31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="30" style="46" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="46" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="65" max="81" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="80" width="3.28515625" customWidth="1"/>
+    <col min="81" max="81" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="82" max="90" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="91" max="97" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1404,491 +1395,491 @@
     </row>
     <row r="2" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="63">
+        <v>15</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>43609</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:99" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="86"/>
+    <row r="4" spans="1:99" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="85"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="88">
+        <v>4</v>
+      </c>
+      <c r="I4" s="78">
         <f>I5</f>
-        <v>43605</v>
-      </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+        <v>43626</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="78">
         <f>P5</f>
-        <v>43612</v>
-      </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+        <v>43633</v>
+      </c>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="78">
         <f>W5</f>
-        <v>43619</v>
-      </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+        <v>43640</v>
+      </c>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="78">
         <f>AD5</f>
-        <v>43626</v>
-      </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+        <v>43647</v>
+      </c>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="78">
         <f>AK5</f>
-        <v>43633</v>
-      </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+        <v>43654</v>
+      </c>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="78">
         <f>AR5</f>
-        <v>43640</v>
-      </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+        <v>43661</v>
+      </c>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="78">
         <f>AY5</f>
-        <v>43647</v>
-      </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+        <v>43668</v>
+      </c>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="78">
         <f>BF5</f>
-        <v>43654</v>
-      </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-      <c r="BM4" s="88">
+        <v>43675</v>
+      </c>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
+      <c r="BK4" s="79"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="78">
         <f>BM5</f>
-        <v>43661</v>
-      </c>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="90"/>
-      <c r="BT4" s="88">
+        <v>43682</v>
+      </c>
+      <c r="BN4" s="79"/>
+      <c r="BO4" s="79"/>
+      <c r="BP4" s="79"/>
+      <c r="BQ4" s="79"/>
+      <c r="BR4" s="79"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="78">
         <f t="shared" ref="BT4" si="0">BT5</f>
-        <v>43668</v>
-      </c>
-      <c r="BU4" s="89"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="89"/>
-      <c r="BZ4" s="90"/>
-      <c r="CA4" s="88">
+        <v>43689</v>
+      </c>
+      <c r="BU4" s="79"/>
+      <c r="BV4" s="79"/>
+      <c r="BW4" s="79"/>
+      <c r="BX4" s="79"/>
+      <c r="BY4" s="79"/>
+      <c r="BZ4" s="80"/>
+      <c r="CA4" s="78">
         <f t="shared" ref="CA4" si="1">CA5</f>
-        <v>43675</v>
-      </c>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="89"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="90"/>
+        <v>43696</v>
+      </c>
+      <c r="CB4" s="79"/>
+      <c r="CC4" s="79"/>
+      <c r="CD4" s="79"/>
+      <c r="CE4" s="79"/>
+      <c r="CF4" s="79"/>
+      <c r="CG4" s="80"/>
     </row>
     <row r="5" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>43605</v>
+        <v>43626</v>
       </c>
       <c r="J5" s="9">
         <f>I5+1</f>
-        <v>43606</v>
+        <v>43627</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" ref="K5:AX5" si="2">J5+1</f>
-        <v>43607</v>
+        <v>43628</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="2"/>
-        <v>43608</v>
+        <v>43629</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="2"/>
-        <v>43609</v>
+        <v>43630</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="2"/>
-        <v>43610</v>
+        <v>43631</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="2"/>
-        <v>43611</v>
+        <v>43632</v>
       </c>
       <c r="P5" s="10">
         <f>O5+1</f>
-        <v>43612</v>
+        <v>43633</v>
       </c>
       <c r="Q5" s="9">
         <f>P5+1</f>
-        <v>43613</v>
+        <v>43634</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="2"/>
-        <v>43614</v>
+        <v>43635</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>43615</v>
+        <v>43636</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="2"/>
-        <v>43616</v>
+        <v>43637</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="2"/>
-        <v>43617</v>
+        <v>43638</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="2"/>
-        <v>43618</v>
+        <v>43639</v>
       </c>
       <c r="W5" s="10">
         <f>V5+1</f>
-        <v>43619</v>
+        <v>43640</v>
       </c>
       <c r="X5" s="9">
         <f>W5+1</f>
-        <v>43620</v>
+        <v>43641</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="2"/>
-        <v>43621</v>
+        <v>43642</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="2"/>
-        <v>43622</v>
+        <v>43643</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="2"/>
-        <v>43623</v>
+        <v>43644</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="2"/>
-        <v>43624</v>
+        <v>43645</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="2"/>
-        <v>43625</v>
+        <v>43646</v>
       </c>
       <c r="AD5" s="10">
         <f>AC5+1</f>
-        <v>43626</v>
+        <v>43647</v>
       </c>
       <c r="AE5" s="9">
         <f>AD5+1</f>
-        <v>43627</v>
+        <v>43648</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43649</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43650</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="2"/>
-        <v>43630</v>
+        <v>43651</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="2"/>
-        <v>43631</v>
+        <v>43652</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" si="2"/>
-        <v>43632</v>
+        <v>43653</v>
       </c>
       <c r="AK5" s="10">
         <f>AJ5+1</f>
-        <v>43633</v>
+        <v>43654</v>
       </c>
       <c r="AL5" s="9">
         <f>AK5+1</f>
-        <v>43634</v>
+        <v>43655</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="2"/>
-        <v>43635</v>
+        <v>43656</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="2"/>
-        <v>43636</v>
+        <v>43657</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
-        <v>43637</v>
+        <v>43658</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="2"/>
-        <v>43638</v>
+        <v>43659</v>
       </c>
       <c r="AQ5" s="11">
         <f t="shared" si="2"/>
-        <v>43639</v>
+        <v>43660</v>
       </c>
       <c r="AR5" s="10">
         <f>AQ5+1</f>
-        <v>43640</v>
+        <v>43661</v>
       </c>
       <c r="AS5" s="9">
         <f>AR5+1</f>
-        <v>43641</v>
+        <v>43662</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" si="2"/>
-        <v>43642</v>
+        <v>43663</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="2"/>
-        <v>43643</v>
+        <v>43664</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="2"/>
-        <v>43644</v>
+        <v>43665</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" si="2"/>
-        <v>43645</v>
+        <v>43666</v>
       </c>
       <c r="AX5" s="11">
         <f t="shared" si="2"/>
-        <v>43646</v>
+        <v>43667</v>
       </c>
       <c r="AY5" s="10">
         <f>AX5+1</f>
-        <v>43647</v>
+        <v>43668</v>
       </c>
       <c r="AZ5" s="9">
         <f>AY5+1</f>
-        <v>43648</v>
+        <v>43669</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" ref="BA5:BE5" si="3">AZ5+1</f>
-        <v>43649</v>
+        <v>43670</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" si="3"/>
-        <v>43650</v>
+        <v>43671</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="3"/>
-        <v>43651</v>
+        <v>43672</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" si="3"/>
-        <v>43652</v>
+        <v>43673</v>
       </c>
       <c r="BE5" s="11">
         <f t="shared" si="3"/>
-        <v>43653</v>
+        <v>43674</v>
       </c>
       <c r="BF5" s="10">
         <f>BE5+1</f>
-        <v>43654</v>
+        <v>43675</v>
       </c>
       <c r="BG5" s="9">
         <f>BF5+1</f>
-        <v>43655</v>
+        <v>43676</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" ref="BH5:BL5" si="4">BG5+1</f>
-        <v>43656</v>
+        <v>43677</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="4"/>
-        <v>43657</v>
+        <v>43678</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="4"/>
-        <v>43658</v>
+        <v>43679</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="4"/>
-        <v>43659</v>
+        <v>43680</v>
       </c>
       <c r="BL5" s="11">
         <f t="shared" si="4"/>
-        <v>43660</v>
+        <v>43681</v>
       </c>
       <c r="BM5" s="11">
         <f t="shared" ref="BM5" si="5">BL5+1</f>
-        <v>43661</v>
+        <v>43682</v>
       </c>
       <c r="BN5" s="11">
         <f t="shared" ref="BN5" si="6">BM5+1</f>
-        <v>43662</v>
+        <v>43683</v>
       </c>
       <c r="BO5" s="11">
         <f t="shared" ref="BO5" si="7">BN5+1</f>
-        <v>43663</v>
+        <v>43684</v>
       </c>
       <c r="BP5" s="11">
         <f t="shared" ref="BP5" si="8">BO5+1</f>
-        <v>43664</v>
+        <v>43685</v>
       </c>
       <c r="BQ5" s="11">
         <f t="shared" ref="BQ5" si="9">BP5+1</f>
-        <v>43665</v>
+        <v>43686</v>
       </c>
       <c r="BR5" s="11">
         <f t="shared" ref="BR5" si="10">BQ5+1</f>
-        <v>43666</v>
+        <v>43687</v>
       </c>
       <c r="BS5" s="11">
         <f t="shared" ref="BS5" si="11">BR5+1</f>
-        <v>43667</v>
+        <v>43688</v>
       </c>
       <c r="BT5" s="11">
         <f t="shared" ref="BT5" si="12">BS5+1</f>
-        <v>43668</v>
+        <v>43689</v>
       </c>
       <c r="BU5" s="11">
         <f t="shared" ref="BU5" si="13">BT5+1</f>
-        <v>43669</v>
+        <v>43690</v>
       </c>
       <c r="BV5" s="11">
         <f t="shared" ref="BV5" si="14">BU5+1</f>
-        <v>43670</v>
+        <v>43691</v>
       </c>
       <c r="BW5" s="11">
         <f t="shared" ref="BW5" si="15">BV5+1</f>
-        <v>43671</v>
+        <v>43692</v>
       </c>
       <c r="BX5" s="11">
         <f t="shared" ref="BX5" si="16">BW5+1</f>
-        <v>43672</v>
+        <v>43693</v>
       </c>
       <c r="BY5" s="11">
         <f t="shared" ref="BY5" si="17">BX5+1</f>
-        <v>43673</v>
+        <v>43694</v>
       </c>
       <c r="BZ5" s="11">
         <f t="shared" ref="BZ5" si="18">BY5+1</f>
-        <v>43674</v>
+        <v>43695</v>
       </c>
       <c r="CA5" s="11">
         <f t="shared" ref="CA5" si="19">BZ5+1</f>
-        <v>43675</v>
+        <v>43696</v>
       </c>
       <c r="CB5" s="11">
         <f t="shared" ref="CB5" si="20">CA5+1</f>
-        <v>43676</v>
+        <v>43697</v>
       </c>
       <c r="CC5" s="11">
         <f t="shared" ref="CC5" si="21">CB5+1</f>
-        <v>43677</v>
+        <v>43698</v>
       </c>
       <c r="CD5" s="11">
         <f t="shared" ref="CD5" si="22">CC5+1</f>
-        <v>43678</v>
+        <v>43699</v>
       </c>
       <c r="CE5" s="11">
         <f t="shared" ref="CE5" si="23">CD5+1</f>
-        <v>43679</v>
+        <v>43700</v>
       </c>
       <c r="CF5" s="11">
         <f t="shared" ref="CF5" si="24">CE5+1</f>
-        <v>43680</v>
+        <v>43701</v>
       </c>
       <c r="CG5" s="11">
         <f t="shared" ref="CG5" si="25">CF5+1</f>
-        <v>43681</v>
+        <v>43702</v>
       </c>
     </row>
     <row r="6" spans="1:99" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" ref="I6" si="26">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2201,7 +2192,7 @@
     </row>
     <row r="7" spans="1:99" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="46"/>
       <c r="E7"/>
@@ -2268,10 +2259,10 @@
     </row>
     <row r="8" spans="1:99" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="17"/>
@@ -2279,7 +2270,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H32" si="29">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H28" si="29">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="38"/>
@@ -2376,13 +2367,13 @@
     </row>
     <row r="9" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -2493,18 +2484,18 @@
     </row>
     <row r="10" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="58">
         <v>43612</v>
       </c>
       <c r="F10" s="47">
@@ -2609,11 +2600,11 @@
     </row>
     <row r="11" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42"/>
-      <c r="B11" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>30</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -2725,10 +2716,10 @@
     </row>
     <row r="12" spans="1:99" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="21"/>
@@ -2833,11 +2824,11 @@
     </row>
     <row r="13" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>30</v>
+      <c r="B13" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="24">
         <v>0.85</v>
@@ -2948,11 +2939,11 @@
     </row>
     <row r="14" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
-      <c r="B14" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>30</v>
+      <c r="B14" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="24">
         <v>0.85</v>
@@ -3063,11 +3054,11 @@
     </row>
     <row r="15" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
-      <c r="B15" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>34</v>
+      <c r="B15" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -3178,11 +3169,11 @@
     </row>
     <row r="16" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42"/>
-      <c r="B16" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>45</v>
+      <c r="B16" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="24">
         <v>1</v>
@@ -3293,11 +3284,11 @@
     </row>
     <row r="17" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
-      <c r="B17" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>40</v>
+      <c r="B17" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="24">
         <v>0.6</v>
@@ -3408,11 +3399,11 @@
     </row>
     <row r="18" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
-      <c r="B18" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>46</v>
+      <c r="B18" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="24">
         <v>0.6</v>
@@ -3519,10 +3510,10 @@
     </row>
     <row r="19" spans="1:99" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="25"/>
@@ -3627,11 +3618,11 @@
     </row>
     <row r="20" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
-      <c r="B20" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>51</v>
+      <c r="B20" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="28">
         <v>0</v>
@@ -3640,12 +3631,12 @@
         <v>43649</v>
       </c>
       <c r="F20" s="49">
-        <v>43666</v>
+        <v>43658</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16">
         <f t="shared" si="29"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
@@ -3741,11 +3732,11 @@
     </row>
     <row r="21" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
-      <c r="B21" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>51</v>
+      <c r="B21" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="28">
         <v>0</v>
@@ -3753,13 +3744,13 @@
       <c r="E21" s="49">
         <v>43649</v>
       </c>
-      <c r="F21" s="80">
-        <v>43661</v>
+      <c r="F21" s="72">
+        <v>43658</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
         <f t="shared" si="29"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -3855,21 +3846,26 @@
     </row>
     <row r="22" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
       <c r="E22" s="49">
         <f>E21+5</f>
         <v>43654</v>
       </c>
       <c r="F22" s="49">
-        <f>E22+5</f>
-        <v>43659</v>
+        <v>43671</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -3965,23 +3961,25 @@
     </row>
     <row r="23" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
-      <c r="B23" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
       <c r="E23" s="49">
-        <f>F22+1</f>
-        <v>43660</v>
+        <v>43656</v>
       </c>
       <c r="F23" s="49">
-        <f>E23+4</f>
-        <v>43664</v>
+        <v>43661</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -4075,25 +4073,21 @@
       <c r="CT23"/>
       <c r="CU23"/>
     </row>
-    <row r="24" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="72" t="s">
-        <v>2</v>
+    <row r="24" spans="1:99" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="55"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="49">
-        <f>E22</f>
-        <v>43654</v>
-      </c>
-      <c r="F24" s="49">
-        <f>E24+4</f>
-        <v>43658</v>
-      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="16">
+      <c r="H24" s="16" t="str">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -4187,21 +4181,27 @@
       <c r="CT24"/>
       <c r="CU24"/>
     </row>
-    <row r="25" spans="1:99" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+    <row r="25" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <v>43663</v>
+      </c>
+      <c r="F25" s="50">
+        <v>43674</v>
+      </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="16">
         <f t="shared" si="29"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -4297,21 +4297,25 @@
     </row>
     <row r="26" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
-      <c r="B26" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>15</v>
+      <c r="B26" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>43664</v>
+      </c>
+      <c r="F26" s="50">
+        <v>43674</v>
       </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="16" t="e">
+      <c r="H26" s="16">
         <f t="shared" si="29"/>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -4406,22 +4410,18 @@
       <c r="CU26"/>
     </row>
     <row r="27" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>15</v>
-      </c>
+      <c r="A27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="16" t="e">
+      <c r="H27" s="16" t="str">
         <f t="shared" si="29"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -4515,101 +4515,99 @@
       <c r="CT27"/>
       <c r="CU27"/>
     </row>
-    <row r="28" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="74" t="s">
+    <row r="28" spans="1:99" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16" t="e">
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37" t="str">
         <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
-      <c r="AY28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BA28" s="38"/>
-      <c r="BB28" s="38"/>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="38"/>
-      <c r="BH28" s="38"/>
-      <c r="BI28" s="38"/>
-      <c r="BJ28" s="38"/>
-      <c r="BK28" s="38"/>
-      <c r="BL28" s="38"/>
-      <c r="BM28" s="38"/>
-      <c r="BN28" s="38"/>
-      <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="38"/>
-      <c r="BR28" s="38"/>
-      <c r="BS28" s="38"/>
-      <c r="BT28" s="38"/>
-      <c r="BU28" s="38"/>
-      <c r="BV28" s="38"/>
-      <c r="BW28" s="38"/>
-      <c r="BX28" s="38"/>
-      <c r="BY28" s="38"/>
-      <c r="BZ28" s="38"/>
-      <c r="CA28" s="38"/>
-      <c r="CB28" s="38"/>
-      <c r="CC28" s="38"/>
-      <c r="CD28" s="38"/>
-      <c r="CE28" s="38"/>
-      <c r="CF28" s="38"/>
-      <c r="CG28" s="38"/>
+        <v/>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="40"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="40"/>
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="40"/>
+      <c r="BF28" s="40"/>
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="40"/>
+      <c r="BI28" s="40"/>
+      <c r="BJ28" s="40"/>
+      <c r="BK28" s="40"/>
+      <c r="BL28" s="40"/>
+      <c r="BM28" s="40"/>
+      <c r="BN28" s="40"/>
+      <c r="BO28" s="40"/>
+      <c r="BP28" s="40"/>
+      <c r="BQ28" s="40"/>
+      <c r="BR28" s="40"/>
+      <c r="BS28" s="40"/>
+      <c r="BT28" s="40"/>
+      <c r="BU28" s="40"/>
+      <c r="BV28" s="40"/>
+      <c r="BW28" s="40"/>
+      <c r="BX28" s="40"/>
+      <c r="BY28" s="40"/>
+      <c r="BZ28" s="40"/>
+      <c r="CA28" s="40"/>
+      <c r="CB28" s="40"/>
+      <c r="CC28" s="40"/>
+      <c r="CD28" s="40"/>
+      <c r="CE28" s="40"/>
+      <c r="CF28" s="40"/>
+      <c r="CG28" s="40"/>
       <c r="CH28"/>
       <c r="CI28"/>
       <c r="CJ28"/>
@@ -4625,469 +4623,35 @@
       <c r="CT28"/>
       <c r="CU28"/>
     </row>
-    <row r="29" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
-      <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
-      <c r="BM29" s="38"/>
-      <c r="BN29" s="38"/>
-      <c r="BO29" s="38"/>
-      <c r="BP29" s="38"/>
-      <c r="BQ29" s="38"/>
-      <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
-      <c r="BT29" s="38"/>
-      <c r="BU29" s="38"/>
-      <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
-      <c r="BX29" s="38"/>
-      <c r="BY29" s="38"/>
-      <c r="BZ29" s="38"/>
-      <c r="CA29" s="38"/>
-      <c r="CB29" s="38"/>
-      <c r="CC29" s="38"/>
-      <c r="CD29" s="38"/>
-      <c r="CE29" s="38"/>
-      <c r="CF29" s="38"/>
-      <c r="CG29" s="38"/>
-      <c r="CH29"/>
-      <c r="CI29"/>
-      <c r="CJ29"/>
-      <c r="CK29"/>
-      <c r="CL29"/>
-      <c r="CM29"/>
-      <c r="CN29"/>
-      <c r="CO29"/>
-      <c r="CP29"/>
-      <c r="CQ29"/>
-      <c r="CR29"/>
-      <c r="CS29"/>
-      <c r="CT29"/>
-      <c r="CU29"/>
+    <row r="29" spans="1:99" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="38"/>
-      <c r="AX30" s="38"/>
-      <c r="AY30" s="38"/>
-      <c r="AZ30" s="38"/>
-      <c r="BA30" s="38"/>
-      <c r="BB30" s="38"/>
-      <c r="BC30" s="38"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="38"/>
-      <c r="BH30" s="38"/>
-      <c r="BI30" s="38"/>
-      <c r="BJ30" s="38"/>
-      <c r="BK30" s="38"/>
-      <c r="BL30" s="38"/>
-      <c r="BM30" s="38"/>
-      <c r="BN30" s="38"/>
-      <c r="BO30" s="38"/>
-      <c r="BP30" s="38"/>
-      <c r="BQ30" s="38"/>
-      <c r="BR30" s="38"/>
-      <c r="BS30" s="38"/>
-      <c r="BT30" s="38"/>
-      <c r="BU30" s="38"/>
-      <c r="BV30" s="38"/>
-      <c r="BW30" s="38"/>
-      <c r="BX30" s="38"/>
-      <c r="BY30" s="38"/>
-      <c r="BZ30" s="38"/>
-      <c r="CA30" s="38"/>
-      <c r="CB30" s="38"/>
-      <c r="CC30" s="38"/>
-      <c r="CD30" s="38"/>
-      <c r="CE30" s="38"/>
-      <c r="CF30" s="38"/>
-      <c r="CG30" s="38"/>
-      <c r="CH30"/>
-      <c r="CI30"/>
-      <c r="CJ30"/>
-      <c r="CK30"/>
-      <c r="CL30"/>
-      <c r="CM30"/>
-      <c r="CN30"/>
-      <c r="CO30"/>
-      <c r="CP30"/>
-      <c r="CQ30"/>
-      <c r="CR30"/>
-      <c r="CS30"/>
-      <c r="CT30"/>
-      <c r="CU30"/>
+    <row r="30" spans="1:99" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="13"/>
+      <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="38"/>
-      <c r="AU31" s="38"/>
-      <c r="AV31" s="38"/>
-      <c r="AW31" s="38"/>
-      <c r="AX31" s="38"/>
-      <c r="AY31" s="38"/>
-      <c r="AZ31" s="38"/>
-      <c r="BA31" s="38"/>
-      <c r="BB31" s="38"/>
-      <c r="BC31" s="38"/>
-      <c r="BD31" s="38"/>
-      <c r="BE31" s="38"/>
-      <c r="BF31" s="38"/>
-      <c r="BG31" s="38"/>
-      <c r="BH31" s="38"/>
-      <c r="BI31" s="38"/>
-      <c r="BJ31" s="38"/>
-      <c r="BK31" s="38"/>
-      <c r="BL31" s="38"/>
-      <c r="BM31" s="38"/>
-      <c r="BN31" s="38"/>
-      <c r="BO31" s="38"/>
-      <c r="BP31" s="38"/>
-      <c r="BQ31" s="38"/>
-      <c r="BR31" s="38"/>
-      <c r="BS31" s="38"/>
-      <c r="BT31" s="38"/>
-      <c r="BU31" s="38"/>
-      <c r="BV31" s="38"/>
-      <c r="BW31" s="38"/>
-      <c r="BX31" s="38"/>
-      <c r="BY31" s="38"/>
-      <c r="BZ31" s="38"/>
-      <c r="CA31" s="38"/>
-      <c r="CB31" s="38"/>
-      <c r="CC31" s="38"/>
-      <c r="CD31" s="38"/>
-      <c r="CE31" s="38"/>
-      <c r="CF31" s="38"/>
-      <c r="CG31" s="38"/>
-      <c r="CH31"/>
-      <c r="CI31"/>
-      <c r="CJ31"/>
-      <c r="CK31"/>
-      <c r="CL31"/>
-      <c r="CM31"/>
-      <c r="CN31"/>
-      <c r="CO31"/>
-      <c r="CP31"/>
-      <c r="CQ31"/>
-      <c r="CR31"/>
-      <c r="CS31"/>
-      <c r="CT31"/>
-      <c r="CU31"/>
-    </row>
-    <row r="32" spans="1:99" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
-      <c r="AS32" s="40"/>
-      <c r="AT32" s="40"/>
-      <c r="AU32" s="40"/>
-      <c r="AV32" s="40"/>
-      <c r="AW32" s="40"/>
-      <c r="AX32" s="40"/>
-      <c r="AY32" s="40"/>
-      <c r="AZ32" s="40"/>
-      <c r="BA32" s="40"/>
-      <c r="BB32" s="40"/>
-      <c r="BC32" s="40"/>
-      <c r="BD32" s="40"/>
-      <c r="BE32" s="40"/>
-      <c r="BF32" s="40"/>
-      <c r="BG32" s="40"/>
-      <c r="BH32" s="40"/>
-      <c r="BI32" s="40"/>
-      <c r="BJ32" s="40"/>
-      <c r="BK32" s="40"/>
-      <c r="BL32" s="40"/>
-      <c r="BM32" s="40"/>
-      <c r="BN32" s="40"/>
-      <c r="BO32" s="40"/>
-      <c r="BP32" s="40"/>
-      <c r="BQ32" s="40"/>
-      <c r="BR32" s="40"/>
-      <c r="BS32" s="40"/>
-      <c r="BT32" s="40"/>
-      <c r="BU32" s="40"/>
-      <c r="BV32" s="40"/>
-      <c r="BW32" s="40"/>
-      <c r="BX32" s="40"/>
-      <c r="BY32" s="40"/>
-      <c r="BZ32" s="40"/>
-      <c r="CA32" s="40"/>
-      <c r="CB32" s="40"/>
-      <c r="CC32" s="40"/>
-      <c r="CD32" s="40"/>
-      <c r="CE32" s="40"/>
-      <c r="CF32" s="40"/>
-      <c r="CG32" s="40"/>
-      <c r="CH32"/>
-      <c r="CI32"/>
-      <c r="CJ32"/>
-      <c r="CK32"/>
-      <c r="CL32"/>
-      <c r="CM32"/>
-      <c r="CN32"/>
-      <c r="CO32"/>
-      <c r="CP32"/>
-      <c r="CQ32"/>
-      <c r="CR32"/>
-      <c r="CS32"/>
-      <c r="CT32"/>
-      <c r="CU32"/>
-    </row>
-    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="F34" s="44"/>
-    </row>
-    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
+    <row r="31" spans="1:99" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D32">
+  <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5101,12 +4665,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM5:CG6 I5:BL32 BM8:CG32">
+  <conditionalFormatting sqref="BM5:CG6 I5:BL28 BM8:CG28">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:CG32">
+  <conditionalFormatting sqref="I7:CG28">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5125,9 +4689,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F22 E22" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5144,7 +4705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D32</xm:sqref>
+          <xm:sqref>D7:D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74E1C6-EE77-46B2-A44C-24BD11B2AFF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,9 +202,6 @@
     <t>DB Manipulation to Search Result</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Registration/log-in page</t>
   </si>
   <si>
@@ -219,19 +215,22 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>John, Kass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -565,7 +564,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -574,10 +573,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -611,13 +610,13 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,10 +633,10 @@
     <xf numFmtId="9" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,10 +645,10 @@
     <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,10 +657,10 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,10 +669,10 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,10 +684,10 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,19 +718,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="11" applyFill="1">
@@ -752,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -794,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -812,16 +811,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -837,27 +830,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="10"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Name" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
+    <cellStyle name="Project Start" xfId="9"/>
+    <cellStyle name="Task" xfId="12"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -985,7 +984,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -1349,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1360,7 +1359,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1407,455 +1406,455 @@
         <v>15</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="D3" s="81"/>
+      <c r="E3" s="88">
         <v>43609</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:99" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="76"/>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="78">
+        <v>6</v>
+      </c>
+      <c r="I4" s="85">
         <f>I5</f>
-        <v>43626</v>
-      </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+        <v>43640</v>
+      </c>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
-        <v>43633</v>
-      </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+        <v>43647</v>
+      </c>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
-        <v>43640</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+        <v>43654</v>
+      </c>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
-        <v>43647</v>
-      </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+        <v>43661</v>
+      </c>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
-        <v>43654</v>
-      </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+        <v>43668</v>
+      </c>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
-        <v>43661</v>
-      </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+        <v>43675</v>
+      </c>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
-        <v>43668</v>
-      </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+        <v>43682</v>
+      </c>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
-        <v>43675</v>
-      </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="78">
+        <v>43689</v>
+      </c>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
+      <c r="BM4" s="85">
         <f>BM5</f>
-        <v>43682</v>
-      </c>
-      <c r="BN4" s="79"/>
-      <c r="BO4" s="79"/>
-      <c r="BP4" s="79"/>
-      <c r="BQ4" s="79"/>
-      <c r="BR4" s="79"/>
-      <c r="BS4" s="80"/>
-      <c r="BT4" s="78">
+        <v>43696</v>
+      </c>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="86"/>
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="86"/>
+      <c r="BR4" s="86"/>
+      <c r="BS4" s="87"/>
+      <c r="BT4" s="85">
         <f t="shared" ref="BT4" si="0">BT5</f>
-        <v>43689</v>
-      </c>
-      <c r="BU4" s="79"/>
-      <c r="BV4" s="79"/>
-      <c r="BW4" s="79"/>
-      <c r="BX4" s="79"/>
-      <c r="BY4" s="79"/>
-      <c r="BZ4" s="80"/>
-      <c r="CA4" s="78">
+        <v>43703</v>
+      </c>
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="86"/>
+      <c r="BW4" s="86"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="86"/>
+      <c r="BZ4" s="87"/>
+      <c r="CA4" s="85">
         <f t="shared" ref="CA4" si="1">CA5</f>
-        <v>43696</v>
-      </c>
-      <c r="CB4" s="79"/>
-      <c r="CC4" s="79"/>
-      <c r="CD4" s="79"/>
-      <c r="CE4" s="79"/>
-      <c r="CF4" s="79"/>
-      <c r="CG4" s="80"/>
+        <v>43710</v>
+      </c>
+      <c r="CB4" s="86"/>
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="86"/>
+      <c r="CE4" s="86"/>
+      <c r="CF4" s="86"/>
+      <c r="CG4" s="87"/>
     </row>
     <row r="5" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>43626</v>
+        <v>43640</v>
       </c>
       <c r="J5" s="9">
         <f>I5+1</f>
-        <v>43627</v>
+        <v>43641</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" ref="K5:AX5" si="2">J5+1</f>
-        <v>43628</v>
+        <v>43642</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43643</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="2"/>
-        <v>43630</v>
+        <v>43644</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="2"/>
-        <v>43631</v>
+        <v>43645</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="2"/>
-        <v>43632</v>
+        <v>43646</v>
       </c>
       <c r="P5" s="10">
         <f>O5+1</f>
-        <v>43633</v>
+        <v>43647</v>
       </c>
       <c r="Q5" s="9">
         <f>P5+1</f>
-        <v>43634</v>
+        <v>43648</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="2"/>
-        <v>43635</v>
+        <v>43649</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="2"/>
-        <v>43636</v>
+        <v>43650</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="2"/>
-        <v>43637</v>
+        <v>43651</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="2"/>
-        <v>43638</v>
+        <v>43652</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="2"/>
-        <v>43639</v>
+        <v>43653</v>
       </c>
       <c r="W5" s="10">
         <f>V5+1</f>
-        <v>43640</v>
+        <v>43654</v>
       </c>
       <c r="X5" s="9">
         <f>W5+1</f>
-        <v>43641</v>
+        <v>43655</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="2"/>
-        <v>43642</v>
+        <v>43656</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="2"/>
-        <v>43643</v>
+        <v>43657</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="2"/>
-        <v>43644</v>
+        <v>43658</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="2"/>
-        <v>43645</v>
+        <v>43659</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="2"/>
-        <v>43646</v>
+        <v>43660</v>
       </c>
       <c r="AD5" s="10">
         <f>AC5+1</f>
-        <v>43647</v>
+        <v>43661</v>
       </c>
       <c r="AE5" s="9">
         <f>AD5+1</f>
-        <v>43648</v>
+        <v>43662</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="2"/>
-        <v>43649</v>
+        <v>43663</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="2"/>
-        <v>43650</v>
+        <v>43664</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="2"/>
-        <v>43651</v>
+        <v>43665</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="2"/>
-        <v>43652</v>
+        <v>43666</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" si="2"/>
-        <v>43653</v>
+        <v>43667</v>
       </c>
       <c r="AK5" s="10">
         <f>AJ5+1</f>
-        <v>43654</v>
+        <v>43668</v>
       </c>
       <c r="AL5" s="9">
         <f>AK5+1</f>
-        <v>43655</v>
+        <v>43669</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="2"/>
-        <v>43656</v>
+        <v>43670</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="2"/>
-        <v>43657</v>
+        <v>43671</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
-        <v>43658</v>
+        <v>43672</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="2"/>
-        <v>43659</v>
+        <v>43673</v>
       </c>
       <c r="AQ5" s="11">
         <f t="shared" si="2"/>
-        <v>43660</v>
+        <v>43674</v>
       </c>
       <c r="AR5" s="10">
         <f>AQ5+1</f>
-        <v>43661</v>
+        <v>43675</v>
       </c>
       <c r="AS5" s="9">
         <f>AR5+1</f>
-        <v>43662</v>
+        <v>43676</v>
       </c>
       <c r="AT5" s="9">
         <f t="shared" si="2"/>
-        <v>43663</v>
+        <v>43677</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="2"/>
-        <v>43664</v>
+        <v>43678</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="2"/>
-        <v>43665</v>
+        <v>43679</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" si="2"/>
-        <v>43666</v>
+        <v>43680</v>
       </c>
       <c r="AX5" s="11">
         <f t="shared" si="2"/>
-        <v>43667</v>
+        <v>43681</v>
       </c>
       <c r="AY5" s="10">
         <f>AX5+1</f>
-        <v>43668</v>
+        <v>43682</v>
       </c>
       <c r="AZ5" s="9">
         <f>AY5+1</f>
-        <v>43669</v>
+        <v>43683</v>
       </c>
       <c r="BA5" s="9">
         <f t="shared" ref="BA5:BE5" si="3">AZ5+1</f>
-        <v>43670</v>
+        <v>43684</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" si="3"/>
-        <v>43671</v>
+        <v>43685</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="3"/>
-        <v>43672</v>
+        <v>43686</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" si="3"/>
-        <v>43673</v>
+        <v>43687</v>
       </c>
       <c r="BE5" s="11">
         <f t="shared" si="3"/>
-        <v>43674</v>
+        <v>43688</v>
       </c>
       <c r="BF5" s="10">
         <f>BE5+1</f>
-        <v>43675</v>
+        <v>43689</v>
       </c>
       <c r="BG5" s="9">
         <f>BF5+1</f>
-        <v>43676</v>
+        <v>43690</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" ref="BH5:BL5" si="4">BG5+1</f>
-        <v>43677</v>
+        <v>43691</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="4"/>
-        <v>43678</v>
+        <v>43692</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="4"/>
-        <v>43679</v>
+        <v>43693</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="4"/>
-        <v>43680</v>
+        <v>43694</v>
       </c>
       <c r="BL5" s="11">
         <f t="shared" si="4"/>
-        <v>43681</v>
+        <v>43695</v>
       </c>
       <c r="BM5" s="11">
         <f t="shared" ref="BM5" si="5">BL5+1</f>
-        <v>43682</v>
+        <v>43696</v>
       </c>
       <c r="BN5" s="11">
         <f t="shared" ref="BN5" si="6">BM5+1</f>
-        <v>43683</v>
+        <v>43697</v>
       </c>
       <c r="BO5" s="11">
         <f t="shared" ref="BO5" si="7">BN5+1</f>
-        <v>43684</v>
+        <v>43698</v>
       </c>
       <c r="BP5" s="11">
         <f t="shared" ref="BP5" si="8">BO5+1</f>
-        <v>43685</v>
+        <v>43699</v>
       </c>
       <c r="BQ5" s="11">
         <f t="shared" ref="BQ5" si="9">BP5+1</f>
-        <v>43686</v>
+        <v>43700</v>
       </c>
       <c r="BR5" s="11">
         <f t="shared" ref="BR5" si="10">BQ5+1</f>
-        <v>43687</v>
+        <v>43701</v>
       </c>
       <c r="BS5" s="11">
         <f t="shared" ref="BS5" si="11">BR5+1</f>
-        <v>43688</v>
+        <v>43702</v>
       </c>
       <c r="BT5" s="11">
         <f t="shared" ref="BT5" si="12">BS5+1</f>
-        <v>43689</v>
+        <v>43703</v>
       </c>
       <c r="BU5" s="11">
         <f t="shared" ref="BU5" si="13">BT5+1</f>
-        <v>43690</v>
+        <v>43704</v>
       </c>
       <c r="BV5" s="11">
         <f t="shared" ref="BV5" si="14">BU5+1</f>
-        <v>43691</v>
+        <v>43705</v>
       </c>
       <c r="BW5" s="11">
         <f t="shared" ref="BW5" si="15">BV5+1</f>
-        <v>43692</v>
+        <v>43706</v>
       </c>
       <c r="BX5" s="11">
         <f t="shared" ref="BX5" si="16">BW5+1</f>
-        <v>43693</v>
+        <v>43707</v>
       </c>
       <c r="BY5" s="11">
         <f t="shared" ref="BY5" si="17">BX5+1</f>
-        <v>43694</v>
+        <v>43708</v>
       </c>
       <c r="BZ5" s="11">
         <f t="shared" ref="BZ5" si="18">BY5+1</f>
-        <v>43695</v>
+        <v>43709</v>
       </c>
       <c r="CA5" s="11">
         <f t="shared" ref="CA5" si="19">BZ5+1</f>
-        <v>43696</v>
+        <v>43710</v>
       </c>
       <c r="CB5" s="11">
         <f t="shared" ref="CB5" si="20">CA5+1</f>
-        <v>43697</v>
+        <v>43711</v>
       </c>
       <c r="CC5" s="11">
         <f t="shared" ref="CC5" si="21">CB5+1</f>
-        <v>43698</v>
+        <v>43712</v>
       </c>
       <c r="CD5" s="11">
         <f t="shared" ref="CD5" si="22">CC5+1</f>
-        <v>43699</v>
+        <v>43713</v>
       </c>
       <c r="CE5" s="11">
         <f t="shared" ref="CE5" si="23">CD5+1</f>
-        <v>43700</v>
+        <v>43714</v>
       </c>
       <c r="CF5" s="11">
         <f t="shared" ref="CF5" si="24">CE5+1</f>
-        <v>43701</v>
+        <v>43715</v>
       </c>
       <c r="CG5" s="11">
         <f t="shared" ref="CG5" si="25">CF5+1</f>
-        <v>43702</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="6" spans="1:99" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3406,7 +3405,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="48">
         <v>43639</v>
@@ -3619,24 +3618,24 @@
     <row r="20" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D20" s="28">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E20" s="49">
         <v>43649</v>
       </c>
       <c r="F20" s="49">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
@@ -3733,24 +3732,24 @@
     <row r="21" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="28">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E21" s="49">
         <v>43649</v>
       </c>
       <c r="F21" s="72">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -3850,10 +3849,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D22" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="49">
         <f>E21+5</f>
@@ -3962,24 +3961,24 @@
     <row r="23" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D23" s="28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E23" s="49">
         <v>43656</v>
       </c>
       <c r="F23" s="49">
-        <v>43661</v>
+        <v>43669</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -4183,11 +4182,11 @@
     </row>
     <row r="25" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
-      <c r="B25" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>44</v>
+      <c r="B25" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="32">
         <v>0</v>
@@ -4297,11 +4296,11 @@
     </row>
     <row r="26" spans="1:99" s="3" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
-      <c r="B26" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>44</v>
+      <c r="B26" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>39</v>
       </c>
       <c r="D26" s="32">
         <v>0</v>
@@ -4635,6 +4634,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -4645,11 +4649,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
@@ -4679,7 +4678,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
